--- a/public/uploads/target_seattle_spreadsheet.xlsx
+++ b/public/uploads/target_seattle_spreadsheet.xlsx
@@ -109,22 +109,12 @@
     <row r="1">
       <c r="A1" t="inlineStr" s="5">
         <is>
-          <t>Name</t>
+          <t>name</t>
         </is>
       </c>
       <c r="B1" t="inlineStr" s="5">
         <is>
-          <t>Chain</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr" s="5">
-        <is>
-          <t>Address</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr" s="5">
-        <is>
-          <t>Phone Number</t>
+          <t>address</t>
         </is>
       </c>
     </row>
@@ -136,17 +126,7 @@
       </c>
       <c r="B2" t="inlineStr" s="5">
         <is>
-          <t>target</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr" s="5">
-        <is>
           <t>302 Northeast Northgate Way, Seattle</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr" s="5">
-        <is>
-          <t>(206) 494-0897</t>
         </is>
       </c>
     </row>
@@ -158,17 +138,7 @@
       </c>
       <c r="B3" t="inlineStr" s="5">
         <is>
-          <t>target</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr" s="5">
-        <is>
-          <t>2800 SW Barton St, Seattle</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr" s="5">
-        <is>
-          <t>(206) 932-1153</t>
+          <t>2800 Southwest Barton Street, Seattle</t>
         </is>
       </c>
     </row>
@@ -180,39 +150,19 @@
       </c>
       <c r="B4" t="inlineStr" s="5">
         <is>
-          <t>target</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr" s="5">
-        <is>
           <t>4053 Factoria Square Mall Southeast, Bellevue</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr" s="5">
-        <is>
-          <t>(425) 562-0830</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr" s="5">
         <is>
-          <t>City Target</t>
+          <t>Target Stores</t>
         </is>
       </c>
       <c r="B5" t="inlineStr" s="5">
         <is>
-          <t>target</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr" s="5">
-        <is>
           <t>1401 2nd Avenue, Seattle</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr" s="5">
-        <is>
-          <t>(206) 494-3250</t>
         </is>
       </c>
     </row>
@@ -224,17 +174,103 @@
       </c>
       <c r="B6" t="inlineStr" s="5">
         <is>
-          <t>target</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr" s="5">
+          <t>301 Strander Boulevard, Tukwila</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr" s="5">
+        <is>
+          <t>Target</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr" s="5">
         <is>
           <t>1215 North Landing Way, Renton</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr" s="5">
-        <is>
-          <t>(425) 207-0067</t>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr" s="5">
+        <is>
+          <t>Target</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr" s="5">
+        <is>
+          <t>17700 Northeast 76th Street, Redmond</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr" s="5">
+        <is>
+          <t>Target</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr" s="5">
+        <is>
+          <t>26301 104th Avenue Southeast, Kent</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr" s="5">
+        <is>
+          <t>Target</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr" s="5">
+        <is>
+          <t>13950 Northeast Mill Place #100, Woodinville</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr" s="5">
+        <is>
+          <t>Target</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr" s="5">
+        <is>
+          <t>18305 Alderwood Mall Parkway, Lynnwood</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr" s="5">
+        <is>
+          <t>Target</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr" s="5">
+        <is>
+          <t>3201 Northwest Randall Way, Silverdale</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr" s="5">
+        <is>
+          <t>Target</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr" s="5">
+        <is>
+          <t>11400 51st Avenue Northwest, Gig Harbor</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr" s="5">
+        <is>
+          <t>Target Service &amp; Supply</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr" s="5">
+        <is>
+          <t>10150 Northeast 144th Place, Bothell</t>
         </is>
       </c>
     </row>
